--- a/inputs/IARCmonoMCchems.xlsx
+++ b/inputs/IARCmonoMCchems.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Silent Spring)\1. Central_Files\Articles_Abstracts\SSI-Articles\Updated breast cancer list 2021\code for github\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Silent Spring)\1. Central_Files\Articles_Abstracts\SSI-Articles\Updated breast cancer list 2021\code for github\Kay2022\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F54FC-E26F-405F-B82A-B9E2DBC9304F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12FF78-B3FB-4321-AD64-22BE8FA79288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="3918" xr2:uid="{3526E14F-3E42-42C5-91F4-A1DC66C5C8A7}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Individual chems'!$A$1:$E$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Individual chems'!$A$1:$C$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="281">
   <si>
     <t>Chemname</t>
   </si>
   <si>
-    <t>DTXSID</t>
-  </si>
-  <si>
     <t>ethinylestradiol</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>52-76-6</t>
   </si>
   <si>
-    <t>DTXSID4021478</t>
-  </si>
-  <si>
     <t>595-33-5</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Match to 2021 MC list</t>
   </si>
   <si>
-    <t>DTXSID9020409</t>
-  </si>
-  <si>
     <t>53-70-3</t>
   </si>
   <si>
@@ -163,18 +154,12 @@
     <t>50-32-8</t>
   </si>
   <si>
-    <t>DTXSID2020139</t>
-  </si>
-  <si>
     <t>189-64-0</t>
   </si>
   <si>
     <t>Dibenzo[a,h]pyrene</t>
   </si>
   <si>
-    <t>DTXSID4059752</t>
-  </si>
-  <si>
     <t>Dibenzo(a,i)pyrene</t>
   </si>
   <si>
@@ -184,15 +169,9 @@
     <t>189-55-9</t>
   </si>
   <si>
-    <t>DTXSID9059751</t>
-  </si>
-  <si>
     <t>191-30-0</t>
   </si>
   <si>
-    <t>DTXSID9059753</t>
-  </si>
-  <si>
     <t>64-17-5</t>
   </si>
   <si>
@@ -202,9 +181,6 @@
     <t xml:space="preserve">Ethanol </t>
   </si>
   <si>
-    <t>Oral consumption</t>
-  </si>
-  <si>
     <t>7,12-Dimethylbenz[a]anthracene (DMBA)</t>
   </si>
   <si>
@@ -232,9 +208,6 @@
     <t>75-07-0</t>
   </si>
   <si>
-    <t>DTXSID5039224</t>
-  </si>
-  <si>
     <t>Mono#</t>
   </si>
   <si>
@@ -244,9 +217,6 @@
     <t>106-99-0</t>
   </si>
   <si>
-    <t>DTXSID3020203</t>
-  </si>
-  <si>
     <t>ethylene oxide</t>
   </si>
   <si>
@@ -259,21 +229,12 @@
     <t>75-21-8</t>
   </si>
   <si>
-    <t>DTXSID0020600</t>
-  </si>
-  <si>
     <t>75-01-4</t>
   </si>
   <si>
-    <t>DTXSID8021434</t>
-  </si>
-  <si>
     <t>75-02-5</t>
   </si>
   <si>
-    <t>DTXSID3021435</t>
-  </si>
-  <si>
     <t>4-aminobiphenyl</t>
   </si>
   <si>
@@ -298,117 +259,72 @@
     <t>91-94-1</t>
   </si>
   <si>
-    <t>DTXSID6020432</t>
-  </si>
-  <si>
     <t>92-87-5</t>
   </si>
   <si>
-    <t>DTXSID2020137</t>
-  </si>
-  <si>
     <t>612-82-8</t>
   </si>
   <si>
     <t>3,3'-Dimethylbenzidine dihydrochloride</t>
   </si>
   <si>
-    <t>DTXSID6020511</t>
-  </si>
-  <si>
     <t>3,3'-dimethoxybenzidine</t>
   </si>
   <si>
     <t>119-90-4</t>
   </si>
   <si>
-    <t>DTXSID3025091</t>
-  </si>
-  <si>
     <t>3,3'-dimethylbenzidine</t>
   </si>
   <si>
     <t>119-93-7</t>
   </si>
   <si>
-    <t>DTXSID5024059</t>
-  </si>
-  <si>
     <t>20325-40-0</t>
   </si>
   <si>
     <t>3,3'-Dimethoxybenzidine Dihydrochloride</t>
   </si>
   <si>
-    <t>DTXSID1020485</t>
-  </si>
-  <si>
     <t>c.i. direct black 38</t>
   </si>
   <si>
     <t>1937-37-7</t>
   </si>
   <si>
-    <t>DTXSID7020184</t>
-  </si>
-  <si>
     <t>95-53-4</t>
   </si>
   <si>
-    <t>DTXSID1026164</t>
-  </si>
-  <si>
     <t>92-67-1</t>
   </si>
   <si>
-    <t>DTXSID5020071</t>
-  </si>
-  <si>
     <t>6459-94-5</t>
   </si>
   <si>
-    <t>DTXSID8021224</t>
-  </si>
-  <si>
     <t>101-14-4</t>
   </si>
   <si>
-    <t>DTXSID5020865</t>
-  </si>
-  <si>
     <t>106-50-3</t>
   </si>
   <si>
-    <t>DTXSID9021138</t>
-  </si>
-  <si>
     <t>chlorambucil</t>
   </si>
   <si>
     <t>305-03-3</t>
   </si>
   <si>
-    <t>DTXSID7020263</t>
-  </si>
-  <si>
     <t>cyclophosphamide</t>
   </si>
   <si>
     <t>50-18-0</t>
   </si>
   <si>
-    <t>DTXSID5020364</t>
-  </si>
-  <si>
     <t>estriol</t>
   </si>
   <si>
     <t>50-27-1</t>
   </si>
   <si>
-    <t>DTXSID9022366</t>
-  </si>
-  <si>
     <t>melphalan</t>
   </si>
   <si>
@@ -418,24 +334,15 @@
     <t>52-24-4</t>
   </si>
   <si>
-    <t>DTXSID0021339</t>
-  </si>
-  <si>
     <t>diethylstilbestrol</t>
   </si>
   <si>
     <t>56-53-1</t>
   </si>
   <si>
-    <t>DTXSID3020465</t>
-  </si>
-  <si>
     <t>50-28-2</t>
   </si>
   <si>
-    <t>DTXSID0020573</t>
-  </si>
-  <si>
     <t>estradiol</t>
   </si>
   <si>
@@ -445,15 +352,9 @@
     <t>53-16-7</t>
   </si>
   <si>
-    <t>DTXSID4022367</t>
-  </si>
-  <si>
     <t>148-82-3</t>
   </si>
   <si>
-    <t>DTXSID6020804</t>
-  </si>
-  <si>
     <t>2393-53-5</t>
   </si>
   <si>
@@ -490,72 +391,39 @@
     <t>75321-20-9</t>
   </si>
   <si>
-    <t>DTXSID5074975</t>
-  </si>
-  <si>
     <t>42397-65-9</t>
   </si>
   <si>
-    <t>DTXSID2073514</t>
-  </si>
-  <si>
     <t>7496-02-8</t>
   </si>
   <si>
-    <t>DTXSID9075454</t>
-  </si>
-  <si>
     <t>607-57-8</t>
   </si>
   <si>
-    <t>DTXSID2020971</t>
-  </si>
-  <si>
     <t>5522-43-0</t>
   </si>
   <si>
-    <t>DTXSID6020983</t>
-  </si>
-  <si>
     <t>57835-92-4</t>
   </si>
   <si>
-    <t>DTXSID5074844</t>
-  </si>
-  <si>
     <t>trichloroethylene maybe</t>
   </si>
   <si>
-    <t>although citation said MC was NS, IARC working group considered that slight increase in MC was associated w/ exposure. WG noted Inconsistent reporting and lots of animals dying before scheduled necropsy</t>
-  </si>
-  <si>
     <t>tetrachloroethylene maybe</t>
   </si>
   <si>
-    <t>lowest dose in inhalation study induced MC, but not high doses. Survival was reduced to the same extent in each of the dosed groups</t>
-  </si>
-  <si>
     <t>1,1,1,2-tetrachloroethane</t>
   </si>
   <si>
     <t>630-20-6</t>
   </si>
   <si>
-    <t>DTXSID2021317</t>
-  </si>
-  <si>
     <t>79-01-6</t>
   </si>
   <si>
-    <t>DTXSID0021383</t>
-  </si>
-  <si>
     <t>127-18-4</t>
   </si>
   <si>
-    <t>DTXSID2021319</t>
-  </si>
-  <si>
     <t>PCB-77</t>
   </si>
   <si>
@@ -568,9 +436,6 @@
     <t>11097-69-1</t>
   </si>
   <si>
-    <t>DTXSID60274189</t>
-  </si>
-  <si>
     <t>1,2-dichloropropane</t>
   </si>
   <si>
@@ -580,21 +445,12 @@
     <t>78-87-5</t>
   </si>
   <si>
-    <t>DTXSID0020448</t>
-  </si>
-  <si>
     <t>75-09-2</t>
   </si>
   <si>
-    <t>DTXSID0020868</t>
-  </si>
-  <si>
     <t>1120-71-4</t>
   </si>
   <si>
-    <t>DTXSID8021195</t>
-  </si>
-  <si>
     <t>parathion</t>
   </si>
   <si>
@@ -604,42 +460,27 @@
     <t>malathion</t>
   </si>
   <si>
-    <t>DTXSID4020791</t>
-  </si>
-  <si>
     <t>56-38-2</t>
   </si>
   <si>
-    <t>DTXSID7021100</t>
-  </si>
-  <si>
     <t>PhIP</t>
   </si>
   <si>
     <t>105650-23-5</t>
   </si>
   <si>
-    <t>DTXSID3037628</t>
-  </si>
-  <si>
     <t>2-Amino-3-methylimidazo(4,5-f)quinoline (IQ)</t>
   </si>
   <si>
     <t>76180-96-6</t>
   </si>
   <si>
-    <t>DTXSID4020745</t>
-  </si>
-  <si>
     <t>2-Amino-3,4-dimethylimidazo(4,5-F)quinoline (MeIQ)</t>
   </si>
   <si>
     <t>77094-11-2</t>
   </si>
   <si>
-    <t>DTXSID6020800</t>
-  </si>
-  <si>
     <t>Dieldrin</t>
   </si>
   <si>
@@ -661,48 +502,27 @@
     <t>71-43-2</t>
   </si>
   <si>
-    <t>DTXSID3039242</t>
-  </si>
-  <si>
     <t>100-42-5</t>
   </si>
   <si>
-    <t>DTXSID2021284</t>
-  </si>
-  <si>
     <t>60-57-1</t>
   </si>
   <si>
-    <t>DTXSID9020453</t>
-  </si>
-  <si>
     <t>75-35-4</t>
   </si>
   <si>
-    <t>DTXSID8021438</t>
-  </si>
-  <si>
     <t>96-09-3</t>
   </si>
   <si>
-    <t>DTXSID2021286</t>
-  </si>
-  <si>
     <t>106-91-2</t>
   </si>
   <si>
-    <t>DTXSID0025361</t>
-  </si>
-  <si>
     <t>sodium nitrite</t>
   </si>
   <si>
     <t>7632-00-0</t>
   </si>
   <si>
-    <t>MC in lowest dose</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,3-propane sultone </t>
   </si>
   <si>
@@ -715,9 +535,6 @@
     <t>CASRN</t>
   </si>
   <si>
-    <t>DTXSID0020941</t>
-  </si>
-  <si>
     <t>4'OH-PCB-61</t>
   </si>
   <si>
@@ -727,18 +544,12 @@
     <t>2-Amino-5-nitrothiazole</t>
   </si>
   <si>
-    <t>DTXSID6020066</t>
-  </si>
-  <si>
     <t>22398-80-7</t>
   </si>
   <si>
     <t>Indium phosphide</t>
   </si>
   <si>
-    <t>DTXSID3031444</t>
-  </si>
-  <si>
     <t>25962-77-0</t>
   </si>
   <si>
@@ -751,64 +562,40 @@
     <t>Hydrazine</t>
   </si>
   <si>
-    <t>DTXSID3020702</t>
-  </si>
-  <si>
     <t>4680-78-8</t>
   </si>
   <si>
     <t>FD&amp;C Green No. 1</t>
   </si>
   <si>
-    <t>DTXSID3020671</t>
-  </si>
-  <si>
     <t>51264-14-3</t>
   </si>
   <si>
     <t>Amsacrine</t>
   </si>
   <si>
-    <t>DTXSID4022604</t>
-  </si>
-  <si>
     <t>51630-58-1</t>
   </si>
   <si>
     <t>Fenvalerate</t>
   </si>
   <si>
-    <t>DTXSID101017940</t>
-  </si>
-  <si>
     <t>630-56-8</t>
   </si>
   <si>
     <t>Hydroxyprogesterone caproate</t>
   </si>
   <si>
-    <t>DTXSID6043915</t>
-  </si>
-  <si>
     <t>838-88-0</t>
   </si>
   <si>
     <t>4,4'-Diamino-3,3'-dimethyldiphenylmethane</t>
   </si>
   <si>
-    <t>DTXSID5020867</t>
-  </si>
-  <si>
     <t>99-59-2</t>
   </si>
   <si>
     <t>5-Nitro-o-anisidine</t>
-  </si>
-  <si>
-    <t>DTXSID0020943</t>
-  </si>
-  <si>
-    <t>DTXSID00946752</t>
   </si>
   <si>
     <t>17-Oxoestra-1(10),2,4-trien-3-yl benzoate</t>
@@ -1094,16 +881,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1119,44 +898,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF4A4A4A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF4A4A4A"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1165,10 +909,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1179,7 +931,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1187,73 +939,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3074,1616 +2788,1377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C4580-AB8B-4ABD-A500-8D8BDDE89782}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.05078125" style="1"/>
-    <col min="2" max="2" width="16.05078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.83984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.05078125" style="1"/>
+    <col min="1" max="1" width="9.05078125" style="5"/>
+    <col min="2" max="2" width="47.83984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.05078125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B114" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C118" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C120" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A27" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="13">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="5" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" s="5">
         <v>77</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="1">
-        <v>105</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="12">
-        <v>106</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="1">
-        <v>106</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="12">
-        <v>106</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D61" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="4" t="s">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D64" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="16">
-        <v>121</v>
-      </c>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D66" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" t="s">
-        <v>240</v>
-      </c>
-      <c r="B81" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" t="s">
-        <v>241</v>
-      </c>
-      <c r="D81" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" t="s">
-        <v>243</v>
-      </c>
-      <c r="B82" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" t="s">
-        <v>244</v>
-      </c>
-      <c r="D82" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" t="s">
-        <v>246</v>
-      </c>
-      <c r="B83" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83" t="s">
-        <v>247</v>
-      </c>
-      <c r="D83" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="s">
-        <v>249</v>
-      </c>
-      <c r="B84" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84" t="s">
-        <v>250</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" t="s">
-        <v>252</v>
-      </c>
-      <c r="B85" t="s">
-        <v>254</v>
-      </c>
-      <c r="C85" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" t="s">
-        <v>255</v>
-      </c>
-      <c r="B86" t="s">
-        <v>257</v>
-      </c>
-      <c r="C86" t="s">
-        <v>256</v>
-      </c>
-      <c r="D86" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D87" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D88" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D89" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D90" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D91" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D92" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D93" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D94" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D96" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="20" t="s">
+      <c r="B123" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D97" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D99" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D100" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D101" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D104" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D105" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D106" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D108" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D111" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D112" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D113" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D115" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D116" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D118" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D119" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D120" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D121" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D123" s="1">
+      <c r="C123" s="5">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E54" xr:uid="{23B43656-03C0-48FE-BFA5-A03DE187F7CF}">
-    <sortState ref="A2:E123">
-      <sortCondition ref="D1:D54"/>
+  <autoFilter ref="A1:C54" xr:uid="{23B43656-03C0-48FE-BFA5-A03DE187F7CF}">
+    <sortState ref="A2:C123">
+      <sortCondition ref="C1:C54"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
@@ -4717,45 +4192,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(B2, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4766,13 +4241,13 @@
         <v>57-63-6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>VLOOKUP(G2, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4785,13 +4260,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(B3, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4802,13 +4277,13 @@
         <v>57-63-6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="e">
         <f>VLOOKUP(G3, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4821,13 +4296,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(B4, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4838,13 +4313,13 @@
         <v>57-63-6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>VLOOKUP(G4, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4857,13 +4332,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(B5, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4874,13 +4349,13 @@
         <v>57-63-6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>VLOOKUP(G5, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4893,13 +4368,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(B6, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4910,13 +4385,13 @@
         <v>72-33-3</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>VLOOKUP(G6, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4929,13 +4404,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(B7, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4946,13 +4421,13 @@
         <v>72-33-3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>VLOOKUP(G7, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4965,13 +4440,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(B8, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -4982,13 +4457,13 @@
         <v>64-17-5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="e">
         <f>VLOOKUP(G8, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -5001,13 +4476,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(B9, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -5018,13 +4493,13 @@
         <v>64-17-5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="e">
         <f>VLOOKUP(G9, 'Individual chems'!A:A, 1, FALSE)</f>
@@ -5037,16 +4512,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>131</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="e">
         <f>VLOOKUP(G10, 'Individual chems'!A:A, 1, FALSE)</f>

--- a/inputs/IARCmonoMCchems.xlsx
+++ b/inputs/IARCmonoMCchems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Silent Spring)\1. Central_Files\Articles_Abstracts\SSI-Articles\Updated breast cancer list 2021\code for github\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3828AEA-D964-45B3-8A66-4A148DABE40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C79DEA-792F-4BFD-BA19-F118B2206E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27315" yWindow="945" windowWidth="17460" windowHeight="13155" xr2:uid="{3526E14F-3E42-42C5-91F4-A1DC66C5C8A7}"/>
+    <workbookView xWindow="972" yWindow="1686" windowWidth="17418" windowHeight="10506" xr2:uid="{3526E14F-3E42-42C5-91F4-A1DC66C5C8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual chems" sheetId="1" r:id="rId1"/>
@@ -602,9 +602,6 @@
     <t>17-Oxoestra-1(10),2,4-trien-3-yl benzoate</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>106-93-4</t>
   </si>
   <si>
@@ -900,6 +897,9 @@
   </si>
   <si>
     <t xml:space="preserve">trichloroethylene </t>
+  </si>
+  <si>
+    <t>67651-34-7</t>
   </si>
 </sst>
 </file>
@@ -986,19 +986,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1011,9 +1006,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,125 +1334,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C4580-AB8B-4ABD-A500-8D8BDDE89782}">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.05078125" style="1"/>
-    <col min="2" max="2" width="47.83984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.05078125" style="1"/>
+    <col min="2" max="2" width="47.83984375" customWidth="1"/>
+    <col min="3" max="3" width="6.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10">
         <v>13</v>
       </c>
     </row>
@@ -1471,51 +1461,51 @@
       <c r="B11" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" s="1">
-        <v>16</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15">
         <v>26</v>
       </c>
     </row>
@@ -1526,7 +1516,7 @@
       <c r="B16" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>27</v>
       </c>
     </row>
@@ -1537,29 +1527,29 @@
       <c r="B17" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="A18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="A19" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19">
         <v>30</v>
       </c>
     </row>
@@ -1570,62 +1560,62 @@
       <c r="B20" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="A21" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="A22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="A23" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="A24" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25">
         <v>50</v>
       </c>
     </row>
@@ -1636,73 +1626,73 @@
       <c r="B26" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="A27" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="C30">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="1">
-        <v>60</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="A31" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="A32" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32">
         <v>65</v>
       </c>
     </row>
@@ -1713,106 +1703,106 @@
       <c r="B33" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C40">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C39" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C40" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="13" t="s">
+      <c r="B42" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>71</v>
       </c>
     </row>
@@ -1823,62 +1813,62 @@
       <c r="B43" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
         <v>271</v>
       </c>
-      <c r="C46" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>84</v>
       </c>
     </row>
@@ -1889,755 +1879,755 @@
       <c r="B49" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="6">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C86" s="5">
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="3" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102">
         <v>125</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" s="1">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C86" s="8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="1">
+      <c r="B105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="B106" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C90" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C94" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C97" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C99" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100" s="11">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C103" s="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C104" s="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>67</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2648,8 +2638,8 @@
       <c r="B118" t="s">
         <v>181</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>240</v>
+      <c r="C118" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2659,85 +2649,85 @@
       <c r="B119" t="s">
         <v>183</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>240</v>
+      <c r="C119" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>27</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>248</v>
+      <c r="C120" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" t="s">
         <v>255</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="13" t="s">
+      <c r="C123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B124" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>240</v>
+      <c r="B126" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2764,339 +2754,337 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.41796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.20703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.05078125" style="1"/>
-    <col min="8" max="8" width="14.1015625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="17.05078125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.05078125" style="1"/>
+    <col min="1" max="1" width="14.41796875" customWidth="1"/>
+    <col min="2" max="2" width="10.7890625" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" customWidth="1"/>
+    <col min="4" max="5" width="18.20703125" customWidth="1"/>
+    <col min="6" max="6" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1015625" customWidth="1"/>
+    <col min="9" max="10" width="17.05078125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" t="str">
         <f>VLOOKUP(B2, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>57-63-6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" t="str">
         <f>VLOOKUP(G2, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>302-22-7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" t="str">
         <f>VLOOKUP(B3, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>57-63-6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="e">
+      <c r="I3" t="e">
         <f>VLOOKUP(G3, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="1" t="e">
+      <c r="J3" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" t="str">
         <f>VLOOKUP(B4, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>57-63-6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" t="str">
         <f>VLOOKUP(G4, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>595-33-5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" t="str">
         <f>VLOOKUP(B5, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>57-63-6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" t="str">
         <f>VLOOKUP(G5, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>297-76-7</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" t="str">
         <f>VLOOKUP(B6, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>72-33-3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" t="str">
         <f>VLOOKUP(G6, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>68-23-5</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" t="str">
         <f>VLOOKUP(B7, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>72-33-3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" t="str">
         <f>VLOOKUP(G7, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>68-22-4</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" t="str">
         <f>VLOOKUP(B8, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>64-17-5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="1" t="e">
+      <c r="I8" t="e">
         <f>VLOOKUP(G8, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" t="str">
         <f>VLOOKUP(B9, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>64-17-5</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="1" t="e">
+      <c r="I9" t="e">
         <f>VLOOKUP(G9, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="1" t="e">
+      <c r="I10" t="e">
         <f>VLOOKUP(G10, 'Individual chems'!A:A, 1, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>50</v>
       </c>
     </row>
